--- a/modulos/data/plantilla_notas.xlsx
+++ b/modulos/data/plantilla_notas.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="vMX/+EBviBrU/0zD71sCCiu5silelpt7du/syyFws5w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="1/A5dUSe8YdYd2L/6rCHpbnKWS36dUMegtyFiVDWzoo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>periodo_academico</t>
   </si>
@@ -31,7 +31,10 @@
     <t>nombres</t>
   </si>
   <si>
-    <t>carrera</t>
+    <t>codigo_carrera</t>
+  </si>
+  <si>
+    <t>nombre_carrera</t>
   </si>
   <si>
     <t>ciclo_carrera</t>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>Nombres y apellidos del estudiante</t>
+  </si>
+  <si>
+    <t>Código exacto de la carrera que esta cursando</t>
   </si>
   <si>
     <t>Carrera que está cursando</t>
@@ -158,12 +164,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -173,6 +182,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,14 +409,14 @@
     <col customWidth="1" min="1" max="1" width="11.75"/>
     <col customWidth="1" min="2" max="3" width="13.5"/>
     <col customWidth="1" min="4" max="4" width="28.5"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="9.38"/>
-    <col customWidth="1" min="7" max="7" width="33.63"/>
-    <col customWidth="1" min="8" max="8" width="15.63"/>
-    <col customWidth="1" min="9" max="10" width="16.75"/>
-    <col customWidth="1" min="11" max="11" width="25.13"/>
-    <col customWidth="1" min="12" max="12" width="18.88"/>
-    <col customWidth="1" min="13" max="13" width="24.38"/>
+    <col customWidth="1" min="5" max="6" width="30.88"/>
+    <col customWidth="1" min="7" max="7" width="9.38"/>
+    <col customWidth="1" min="8" max="8" width="33.63"/>
+    <col customWidth="1" min="9" max="9" width="15.63"/>
+    <col customWidth="1" min="10" max="11" width="16.75"/>
+    <col customWidth="1" min="12" max="12" width="25.13"/>
+    <col customWidth="1" min="13" max="13" width="18.88"/>
+    <col customWidth="1" min="14" max="14" width="24.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.0" customHeight="1">
@@ -420,10 +432,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -446,6 +458,9 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -471,115 +486,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
